--- a/Документация/Профиль нагрузки.xlsx
+++ b/Документация/Профиль нагрузки.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сабина\Desktop\SCRIPTS_02\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сабина\Desktop\forGITHUB\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -302,9 +302,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1318,7 +1319,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1408,7 +1409,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1424,6 +1424,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="37" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,72 +1505,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="37" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2226,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2254,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="39" t="s">
@@ -2320,7 +2322,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58">
+      <c r="A2" s="79">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -2397,7 +2399,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="26" t="s">
         <v>57</v>
       </c>
@@ -2468,7 +2470,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="26" t="s">
         <v>57</v>
       </c>
@@ -2539,7 +2541,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="26" t="s">
         <v>57</v>
       </c>
@@ -2610,7 +2612,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="26" t="s">
         <v>57</v>
       </c>
@@ -2681,7 +2683,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="26" t="s">
         <v>57</v>
       </c>
@@ -2727,7 +2729,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="30" t="s">
         <v>57</v>
       </c>
@@ -2764,7 +2766,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
+      <c r="A9" s="79">
         <v>2</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -2803,7 +2805,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
@@ -2834,7 +2836,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2867,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="26" t="s">
         <v>8</v>
       </c>
@@ -2896,7 +2898,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="30" t="s">
         <v>8</v>
       </c>
@@ -2927,7 +2929,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
+      <c r="A14" s="79">
         <v>3</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -2960,7 +2962,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="26" t="s">
         <v>58</v>
       </c>
@@ -2991,7 +2993,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="26" t="s">
         <v>58</v>
       </c>
@@ -3021,8 +3023,8 @@
         <v>78.260869565217391</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="79"/>
       <c r="B17" s="26" t="s">
         <v>58</v>
       </c>
@@ -3052,8 +3054,8 @@
         <v>78.260869565217391</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="79"/>
       <c r="B18" s="30" t="s">
         <v>58</v>
       </c>
@@ -3083,8 +3085,8 @@
         <v>78.260869565217391</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79">
         <v>4</v>
       </c>
       <c r="B19" s="24" t="s">
@@ -3116,8 +3118,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
       <c r="B20" s="26" t="s">
         <v>4</v>
       </c>
@@ -3147,8 +3149,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="79"/>
       <c r="B21" s="26" t="s">
         <v>4</v>
       </c>
@@ -3178,8 +3180,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="79"/>
       <c r="B22" s="26" t="s">
         <v>4</v>
       </c>
@@ -3209,8 +3211,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="79"/>
       <c r="B23" s="26" t="s">
         <v>4</v>
       </c>
@@ -3240,8 +3242,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="79"/>
       <c r="B24" s="30" t="s">
         <v>4</v>
       </c>
@@ -3271,8 +3273,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="79">
         <v>5</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -3304,8 +3306,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79"/>
       <c r="B26" s="30" t="s">
         <v>59</v>
       </c>
@@ -3335,33 +3337,33 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="47" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="50" t="s">
+    <row r="30" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="50">
         <v>422</v>
       </c>
       <c r="D30" s="43">
@@ -3374,14 +3376,23 @@
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="50" t="s">
+      <c r="J30" s="81">
+        <f>D30/3</f>
+        <v>141.31276297335202</v>
+      </c>
+      <c r="K30" s="48">
+        <v>133</v>
+      </c>
+      <c r="L30" s="82">
+        <f>(J30-K30)/J30</f>
+        <v>5.882528087657303E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="50">
         <v>282</v>
       </c>
       <c r="D31" s="43">
@@ -3394,14 +3405,23 @@
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="48"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="50" t="s">
+      <c r="J31" s="81">
+        <f t="shared" ref="J31:J36" si="9">D31/3</f>
+        <v>87.979429640018694</v>
+      </c>
+      <c r="K31" s="48">
+        <v>82</v>
+      </c>
+      <c r="L31" s="82">
+        <f t="shared" ref="L31:L36" si="10">(J31-K31)/J31</f>
+        <v>6.7963950942674281E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="50">
         <v>251</v>
       </c>
       <c r="D32" s="43">
@@ -3414,14 +3434,23 @@
       </c>
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="48"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="J32" s="81">
+        <f t="shared" si="9"/>
+        <v>87.979429640018694</v>
+      </c>
+      <c r="K32" s="48">
+        <v>82</v>
+      </c>
+      <c r="L32" s="82">
+        <f t="shared" si="10"/>
+        <v>6.7963950942674281E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="50">
         <v>175</v>
       </c>
       <c r="D33" s="43">
@@ -3434,14 +3463,23 @@
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="48"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="50" t="s">
+      <c r="J33" s="81">
+        <f t="shared" si="9"/>
+        <v>61.892473118279575</v>
+      </c>
+      <c r="K33" s="48">
+        <v>57</v>
+      </c>
+      <c r="L33" s="82">
+        <f t="shared" si="10"/>
+        <v>7.904794996525373E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="50">
         <v>159</v>
       </c>
       <c r="D34" s="43">
@@ -3454,14 +3492,23 @@
       </c>
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="48"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
+      <c r="J34" s="81">
+        <f t="shared" si="9"/>
+        <v>55.979429640018701</v>
+      </c>
+      <c r="K34" s="48">
+        <v>53</v>
+      </c>
+      <c r="L34" s="82">
+        <f t="shared" si="10"/>
+        <v>5.3223651244362791E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="50">
         <v>73</v>
       </c>
       <c r="D35" s="43">
@@ -3474,14 +3521,23 @@
       </c>
       <c r="H35" s="48"/>
       <c r="I35" s="48"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="48"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
+      <c r="J35" s="81">
+        <f t="shared" si="9"/>
+        <v>23.2258064516129</v>
+      </c>
+      <c r="K35" s="48">
+        <v>22</v>
+      </c>
+      <c r="L35" s="82">
+        <f t="shared" si="10"/>
+        <v>5.277777777777766E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="50">
         <v>422</v>
       </c>
       <c r="D36" s="43">
@@ -3494,14 +3550,23 @@
       </c>
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="52" t="s">
+      <c r="J36" s="81">
+        <f t="shared" si="9"/>
+        <v>141.31276297335202</v>
+      </c>
+      <c r="K36" s="48">
+        <v>131</v>
+      </c>
+      <c r="L36" s="82">
+        <f t="shared" si="10"/>
+        <v>7.2978284171662161E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="52">
         <f>SUM(C30:C36)</f>
         <v>1784</v>
       </c>
@@ -3519,188 +3584,188 @@
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
     </row>
-    <row r="39" spans="1:11" ht="51.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
+    <row r="39" spans="1:12" ht="51.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="64">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="58">
         <v>1</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="60">
         <v>70</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="60">
         <f>3600*E40/F40</f>
         <v>69.677419354838705</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="60">
         <v>3</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="60">
         <v>155</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="61">
         <f>(C40-D40)*100/C40</f>
         <v>0.46082949308756482</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="62">
         <f>E40/E$45</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="69">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="63">
         <v>2</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="71">
+      <c r="C41" s="65">
         <v>98</v>
       </c>
-      <c r="D41" s="71">
-        <f t="shared" ref="D41:D44" si="9">3600*E41/F41</f>
+      <c r="D41" s="65">
+        <f t="shared" ref="D41:D44" si="11">3600*E41/F41</f>
         <v>96</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="65">
         <v>2</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="65">
         <v>75</v>
       </c>
-      <c r="G41" s="72">
-        <f t="shared" ref="G41:G44" si="10">(C41-D41)*100/C41</f>
+      <c r="G41" s="66">
+        <f t="shared" ref="G41:G44" si="12">(C41-D41)*100/C41</f>
         <v>2.0408163265306123</v>
       </c>
-      <c r="H41" s="68">
-        <f t="shared" ref="H41:H44" si="11">E41/E$45</f>
+      <c r="H41" s="62">
+        <f t="shared" ref="H41:H44" si="13">E41/E$45</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="64">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="58">
         <v>3</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="68">
         <v>80</v>
       </c>
-      <c r="D42" s="66">
-        <f t="shared" si="9"/>
+      <c r="D42" s="60">
+        <f t="shared" si="11"/>
         <v>78.260869565217391</v>
       </c>
-      <c r="E42" s="66">
+      <c r="E42" s="60">
         <v>2</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="60">
         <v>92</v>
       </c>
-      <c r="G42" s="67">
-        <f t="shared" si="10"/>
+      <c r="G42" s="61">
+        <f t="shared" si="12"/>
         <v>2.1739130434782616</v>
       </c>
-      <c r="H42" s="68">
+      <c r="H42" s="62">
+        <f t="shared" si="13"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="63">
+        <v>4</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="65">
+        <v>20</v>
+      </c>
+      <c r="D43" s="65">
         <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="E43" s="65">
+        <v>1</v>
+      </c>
+      <c r="F43" s="65">
+        <v>180</v>
+      </c>
+      <c r="G43" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="62">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="69">
+        <v>5</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="71">
+        <v>155</v>
+      </c>
+      <c r="D44" s="72">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="E44" s="72">
+        <v>2</v>
+      </c>
+      <c r="F44" s="72">
+        <v>45</v>
+      </c>
+      <c r="G44" s="73">
+        <f t="shared" si="12"/>
+        <v>-3.225806451612903</v>
+      </c>
+      <c r="H44" s="62">
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
-        <v>4</v>
-      </c>
-      <c r="B43" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="71">
-        <v>20</v>
-      </c>
-      <c r="D43" s="71">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="E43" s="71">
-        <v>1</v>
-      </c>
-      <c r="F43" s="71">
-        <v>180</v>
-      </c>
-      <c r="G43" s="72">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="68">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="75">
-        <v>5</v>
-      </c>
-      <c r="B44" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="77">
-        <v>155</v>
-      </c>
-      <c r="D44" s="78">
-        <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="E44" s="78">
-        <v>2</v>
-      </c>
-      <c r="F44" s="78">
-        <v>45</v>
-      </c>
-      <c r="G44" s="79">
-        <f t="shared" si="10"/>
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="H44" s="68">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="80" t="s">
+    <row r="45" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="75">
         <f>SUM(E40:E44)</f>
         <v>10</v>
       </c>
@@ -3747,13 +3812,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
@@ -3906,13 +3971,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="9" t="s">
@@ -4072,13 +4137,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="9" t="s">
